--- a/data/s_vals/2023/spiers_carson.xlsx
+++ b/data/s_vals/2023/spiers_carson.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>593.8753840089031</v>
+        <v>10990084.13351303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>1.942068315706629</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>598.6823079889168</v>
+        <v>10990333.33711062</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/spiers_carson.xlsx
+++ b/data/s_vals/2023/spiers_carson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>10990333.33711062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/spiers_carson.xlsx
+++ b/data/s_vals/2023/spiers_carson.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>10990084.13351303</v>
+        <v>53694773.49795976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>246.9852506941017</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>10990333.33711062</v>
+        <v>53695908.74298159</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
